--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nrg4-Erbb4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.150919</v>
+        <v>1.666571333333333</v>
       </c>
       <c r="H2">
-        <v>9.452757</v>
+        <v>4.999714</v>
       </c>
       <c r="I2">
-        <v>0.6607557806083428</v>
+        <v>0.6861303711299348</v>
       </c>
       <c r="J2">
-        <v>0.6607557806083431</v>
+        <v>0.6861303711299347</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02000938595633333</v>
+        <v>0.01058328349044444</v>
       </c>
       <c r="R2">
-        <v>0.180084473607</v>
+        <v>0.09524955141399999</v>
       </c>
       <c r="S2">
-        <v>0.6607557806083428</v>
+        <v>0.6861303711299348</v>
       </c>
       <c r="T2">
-        <v>0.6607557806083431</v>
+        <v>0.6861303711299347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.761674</v>
       </c>
       <c r="I3">
-        <v>0.1231425158868912</v>
+        <v>0.2417614358401214</v>
       </c>
       <c r="J3">
-        <v>0.1231425158868912</v>
+        <v>0.2417614358401214</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.033561651374</v>
       </c>
       <c r="S3">
-        <v>0.1231425158868912</v>
+        <v>0.2417614358401214</v>
       </c>
       <c r="T3">
-        <v>0.1231425158868912</v>
+        <v>0.2417614358401214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.030515333333333</v>
+        <v>0.1751466666666667</v>
       </c>
       <c r="H4">
-        <v>3.091546</v>
+        <v>0.52544</v>
       </c>
       <c r="I4">
-        <v>0.2161017035047659</v>
+        <v>0.0721081930299439</v>
       </c>
       <c r="J4">
-        <v>0.2161017035047659</v>
+        <v>0.0721081930299439</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.006544115871777778</v>
+        <v>0.001112239715555555</v>
       </c>
       <c r="R4">
-        <v>0.058897042846</v>
+        <v>0.01001015744</v>
       </c>
       <c r="S4">
-        <v>0.2161017035047659</v>
+        <v>0.0721081930299439</v>
       </c>
       <c r="T4">
-        <v>0.2161017035047659</v>
+        <v>0.0721081930299439</v>
       </c>
     </row>
   </sheetData>
